--- a/python/image_tags.xlsx
+++ b/python/image_tags.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>image_uuid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -230,6 +230,10 @@
   <si>
     <t>CentOS 7.5 64bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -303,13 +307,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -614,214 +621,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="41.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>45</v>
       </c>
     </row>

--- a/python/image_tags.xlsx
+++ b/python/image_tags.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>image_uuid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -28,56 +28,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CentOS 7.3 64bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>index</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>InImage-michaelliu-0000000017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Windows Server 2012 R2 DC 64bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InImage-inspur-0000000013</t>
-  </si>
-  <si>
-    <t>Windows Server 2008 STD 64bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InImage-inspur-0000000011</t>
-  </si>
-  <si>
-    <t>Windows Server 2008 R2 ENT 64bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InImage-inspur-0000000014</t>
-  </si>
-  <si>
-    <t>InImage-inspurclouddev-0000000010</t>
-  </si>
-  <si>
-    <t>InImage-inspurclouddev-0000000012</t>
-  </si>
-  <si>
-    <t>InImage-inspurtest01-0000000007</t>
-  </si>
-  <si>
     <t>CentOS 7.3 64bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InImage-inspurtest02-0000000008</t>
-  </si>
-  <si>
-    <t>InImage-inspurtest08-0000000009</t>
   </si>
   <si>
     <t>InImage-inspurtest13-0000000015</t>
@@ -157,22 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>444d1cf0-e83d-414c-acec-128d950cacec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bc42ee55-1440-48f9-b7ec-3c872d168641</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b9518dfc-a9bc-454c-82b8-3af3b2ea6b3f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>522d0809-12ff-4f2a-aa77-5dc2f8ebcbd4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>b609b95e-40e5-4536-91ab-0a4406fde480</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,30 +126,6 @@
   </si>
   <si>
     <t>1aa57b3e-e483-47b8-af5a-71448be18d78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CentOS 7.3 64bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f1355238-c19b-4cac-b22f-f8c612c127d1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d2346284-f8ff-4b61-9818-9ba6afed1bcf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4b316b11-216b-491b-80ec-764b4df95ae3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2bf78c9b-8e3a-46b7-a963-6308ba32534c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7796fb03-907c-463f-9ac9-dafbed0fbe37</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -327,14 +243,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -647,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -662,7 +574,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -674,284 +586,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>15</v>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/python/image_tags.xlsx
+++ b/python/image_tags.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>image_uuid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -36,9 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>InImage-inspurtest13-0000000015</t>
-  </si>
-  <si>
     <t>InImage-jiyouai-0000000016</t>
   </si>
   <si>
@@ -126,10 +123,6 @@
   </si>
   <si>
     <t>1aa57b3e-e483-47b8-af5a-71448be18d78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6c23b1b2-5b65-4d3e-847f-ca28e36d6cbc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -559,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -591,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -604,42 +597,42 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -647,13 +640,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -661,13 +654,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -675,13 +668,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -689,13 +682,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -705,11 +698,11 @@
       <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -717,27 +710,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/python/image_tags.xlsx
+++ b/python/image_tags.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="116">
   <si>
     <t>image_uuid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -28,17 +28,269 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>5c610cbe-f5cb-46a8-8ae7-4fe78e1a2be1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b8703daa-05a9-4967-ac36-3db3a807f1e2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a049c27c-da2b-4df9-ac20-b6baad6aaeb7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>903544ca-de96-4623-9041-6805fa17858f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1ee0770e-4bfc-4da4-8dce-ec2ec85deb8c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79f842ae-3b9a-4876-ab4d-da2421695b04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centos73x86_64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centos72x86_64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centos71x86_64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centos68x86_64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35c22a73-5ef6-45a9-83bc-653b96e898ff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIN2008R2STDx86_64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17f99189-023a-4afc-9a72-ae100a506260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIN2008R2EEx86_64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIN2016R2DCx86_64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b6cc205d-4191-4ad4-8d72-5218750fc5be</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIN2012R2DCx86_64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6c2dd0cf-e3b4-43d9-bb13-7a55af057269</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ubuntu1604x86_64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5de15af5-6d4d-434a-bcfa-b3526d0e3231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centos69x86_64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a74db947-3e53-4831-b752-b292a3c5ecbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CentOS 7.1 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CentOS 6.9 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CentOS 6.8 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ubuntu1404x86_64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubuntu 16.04 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubuntu 14.04 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CentOS 7.3 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows Server 2008 R2 STD 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows Server 2008 R2 ENT 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5d76f3c9-98cb-41ed-89ac-8c184efc54f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centos65x86_64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centos66x86_64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CentOS 6.5 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CentOS 6.6 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIN10PROx86_64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c55b14af-2a2e-437c-a7d2-e684995dc409</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows Server 2012 R2 DC 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows 10 PRO 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centos610x86_64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dab9b882-6f40-4b4b-b05a-7b16a77231d5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CentOS 6.10 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centos74x86_64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centos75x86_64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CentOS 7.5 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>index</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>f1355238-c19b-4cac-b22f-f8c612c127d1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InImage-michaelliu-0000000017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows Server 2012 R2 DC 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d2346284-f8ff-4b61-9818-9ba6afed1bcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InImage-inspur-0000000013</t>
+  </si>
+  <si>
+    <t>Windows Server 2008 STD 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>444d1cf0-e83d-414c-acec-128d950cacec</t>
+  </si>
+  <si>
+    <t>InImage-inspur-0000000011</t>
+  </si>
+  <si>
+    <t>Windows Server 2008 R2 ENT 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bc42ee55-1440-48f9-b7ec-3c872d168641</t>
+  </si>
+  <si>
+    <t>InImage-inspur-0000000014</t>
+  </si>
+  <si>
+    <t>InImage-inspurclouddev-0000000010</t>
+  </si>
+  <si>
     <t>CentOS 7.3 64bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>InImage-inspurclouddev-0000000012</t>
+  </si>
+  <si>
+    <t>InImage-inspurtest01-0000000007</t>
+  </si>
+  <si>
+    <t>CentOS 7.3 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>522d0809-12ff-4f2a-aa77-5dc2f8ebcbd4</t>
+  </si>
+  <si>
+    <t>InImage-inspurtest02-0000000008</t>
+  </si>
+  <si>
+    <t>InImage-inspurtest08-0000000009</t>
+  </si>
+  <si>
+    <t>InImage-inspurtest13-0000000015</t>
+  </si>
+  <si>
     <t>InImage-jiyouai-0000000016</t>
   </si>
   <si>
+    <t xml:space="preserve">053a75cd-e9c1-4393-9fa0-a4ec857926ad </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>WIN2008R2DCx86_64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,6 +299,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>b609b95e-40e5-4536-91ab-0a4406fde480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>centos64x86_64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,6 +311,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>4687bd61-7178-4d3c-98fe-92799272f891</t>
+  </si>
+  <si>
     <t>WIN2012R2STDx86_64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,11 +322,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>c98da9c9-4553-45ca-8abc-ae23f22ec342</t>
+  </si>
+  <si>
     <t>SUSE-SP2-12.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Open Suse SP2 12.2 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44178f3c-c676-4685-a432-49533763ebe3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -110,11 +376,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b609b95e-40e5-4536-91ab-0a4406fde480</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44178f3c-c676-4685-a432-49533763ebe3</t>
+    <t>WIN2008R2EEx86_64_old_20180906</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows Server 2008 R2 ENT 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows Server 2008 R2 ENT 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centos70x86_64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CentOS 7.2 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CentOS 7.0 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00670a49-8bfb-496b-902f-323517dc72ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f8909e4f-6e34-4d5c-963f-720db36c5b6e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>463bc63d-f36b-4cab-9e85-10b9ee818f2e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e93106fe-4277-4946-962a-e5cb6ef3b506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1aa57b3e-e483-47b8-af5a-71448be18d78</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -122,31 +424,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1aa57b3e-e483-47b8-af5a-71448be18d78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00670a49-8bfb-496b-902f-323517dc72ab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>053a75cd-e9c1-4393-9fa0-a4ec857926ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4687bd61-7178-4d3c-98fe-92799272f891</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c98da9c9-4553-45ca-8abc-ae23f22ec342</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>f8c88e75-6401-41b7-9348-1348a3260072</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>e93106fe-4277-4946-962a-e5cb6ef3b506</t>
+    <t>7796fb03-907c-463f-9ac9-dafbed0fbe37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6c23b1b2-5b65-4d3e-847f-ca28e36d6cbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b9518dfc-a9bc-454c-82b8-3af3b2ea6b3f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2bf78c9b-8e3a-46b7-a963-6308ba32534c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4b316b11-216b-491b-80ec-764b4df95ae3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows Server 2016 R2 DC 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CentOS 7.4 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ed09732a-ae94-4d0a-b014-7507e723bfad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc69064c-1447-4cc5-b882-63e83fd80c8b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -236,17 +550,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -566,16 +889,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -583,140 +906,546 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
+      <c r="B2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
+      <c r="D5" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="B23" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="7">
         <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
